--- a/Hardware/standalone/bom.xlsx
+++ b/Hardware/standalone/bom.xlsx
@@ -15,7 +15,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$G$54</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$L$54</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="182">
   <si>
     <t>Qty</t>
   </si>
@@ -416,9 +416,6 @@
     <t>DIS1</t>
   </si>
   <si>
-    <t>Supplier: info</t>
-  </si>
-  <si>
     <t>LM2576S</t>
   </si>
   <si>
@@ -558,13 +555,34 @@
   </si>
   <si>
     <t>N</t>
+  </si>
+  <si>
+    <t>Total Cost</t>
+  </si>
+  <si>
+    <t>Price (For Quantity 100)</t>
+  </si>
+  <si>
+    <t>RS</t>
+  </si>
+  <si>
+    <t>758-1979</t>
+  </si>
+  <si>
+    <t>Supplier: info@huaxinjin.com   Order Code: HSM1602C-1</t>
+  </si>
+  <si>
+    <t>725-0154</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
+  </numFmts>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -578,6 +596,20 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -607,10 +639,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -621,11 +654,31 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Currency" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="5">
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -643,22 +696,6 @@
         <scheme val="minor"/>
       </font>
     </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -673,21 +710,26 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:I52" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="4">
-  <autoFilter ref="A1:I52"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:L52" totalsRowShown="0" headerRowDxfId="4" headerRowBorderDxfId="3">
+  <autoFilter ref="A1:L52"/>
   <sortState ref="A2:I52">
     <sortCondition ref="F1:F52"/>
   </sortState>
-  <tableColumns count="9">
-    <tableColumn id="1" name="Qty" dataDxfId="3"/>
-    <tableColumn id="2" name="Value" dataDxfId="2"/>
-    <tableColumn id="3" name="Populate" dataDxfId="1"/>
+  <tableColumns count="12">
+    <tableColumn id="1" name="Qty" dataDxfId="2"/>
+    <tableColumn id="2" name="Value" dataDxfId="1"/>
+    <tableColumn id="3" name="Populate" dataDxfId="0"/>
     <tableColumn id="4" name="Device"/>
     <tableColumn id="5" name="Package"/>
     <tableColumn id="6" name="Parts"/>
     <tableColumn id="7" name="Description"/>
     <tableColumn id="8" name="OC_FARNELL"/>
+    <tableColumn id="12" name="RS"/>
     <tableColumn id="9" name="TOBY"/>
+    <tableColumn id="10" name="Price (For Quantity 100)" dataCellStyle="Currency"/>
+    <tableColumn id="11" name="Total Cost" dataCellStyle="Currency">
+      <calculatedColumnFormula>Table1[[#This Row],[Price (For Quantity 100)]]*Table1[[#This Row],[Qty]]</calculatedColumnFormula>
+    </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -959,10 +1001,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I52"/>
+  <dimension ref="A1:L54"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="L54" sqref="A1:L54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -971,23 +1013,24 @@
     <col min="2" max="2" width="27.85546875" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.7109375" style="5" customWidth="1"/>
     <col min="4" max="5" width="32.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="35.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="67.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="37.7109375" customWidth="1"/>
+    <col min="7" max="7" width="46.5703125" customWidth="1"/>
     <col min="8" max="8" width="19" customWidth="1"/>
-    <col min="9" max="9" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="38.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="73.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="23" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.5703125" customWidth="1"/>
+    <col min="10" max="10" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11" style="7" customWidth="1"/>
+    <col min="12" max="12" width="12.5703125" style="7" customWidth="1"/>
+    <col min="13" max="13" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="23" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -995,7 +1038,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -1013,10 +1056,19 @@
         <v>6</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+        <v>178</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>2</v>
       </c>
@@ -1024,7 +1076,7 @@
         <v>55</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D2" t="s">
         <v>53</v>
@@ -1033,7 +1085,7 @@
         <v>54</v>
       </c>
       <c r="F2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G2" t="s">
         <v>49</v>
@@ -1041,8 +1093,15 @@
       <c r="H2">
         <v>1539489</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K2" s="7">
+        <v>0.17199999999999999</v>
+      </c>
+      <c r="L2" s="7">
+        <f>Table1[[#This Row],[Price (For Quantity 100)]]*Table1[[#This Row],[Qty]]</f>
+        <v>0.34399999999999997</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>1</v>
       </c>
@@ -1050,7 +1109,7 @@
         <v>45</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D3" t="s">
         <v>46</v>
@@ -1067,8 +1126,15 @@
       <c r="H3">
         <v>1244342</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K3" s="7">
+        <v>0.33600000000000002</v>
+      </c>
+      <c r="L3" s="7">
+        <f>Table1[[#This Row],[Price (For Quantity 100)]]*Table1[[#This Row],[Qty]]</f>
+        <v>0.33600000000000002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>1</v>
       </c>
@@ -1076,7 +1142,7 @@
         <v>105</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D4" t="s">
         <v>105</v>
@@ -1090,34 +1156,48 @@
       <c r="H4">
         <v>1012166</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K4" s="7">
+        <v>0.28699999999999998</v>
+      </c>
+      <c r="L4" s="7">
+        <f>Table1[[#This Row],[Price (For Quantity 100)]]*Table1[[#This Row],[Qty]]</f>
+        <v>0.28699999999999998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>1</v>
       </c>
       <c r="B5" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="D5" t="s">
         <v>148</v>
       </c>
-      <c r="C5" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
+        <v>148</v>
+      </c>
+      <c r="F5" t="s">
         <v>149</v>
       </c>
-      <c r="E5" t="s">
-        <v>149</v>
-      </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>150</v>
-      </c>
-      <c r="G5" t="s">
-        <v>151</v>
       </c>
       <c r="H5">
         <v>1298246</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K5" s="7">
+        <v>0.76300000000000001</v>
+      </c>
+      <c r="L5" s="7">
+        <f>Table1[[#This Row],[Price (For Quantity 100)]]*Table1[[#This Row],[Qty]]</f>
+        <v>0.76300000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>1</v>
       </c>
@@ -1125,7 +1205,7 @@
         <v>102</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D6" t="s">
         <v>102</v>
@@ -1139,8 +1219,15 @@
       <c r="H6">
         <v>1669967</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K6" s="7">
+        <v>0.16200000000000001</v>
+      </c>
+      <c r="L6" s="7">
+        <f>Table1[[#This Row],[Price (For Quantity 100)]]*Table1[[#This Row],[Qty]]</f>
+        <v>0.16200000000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>2</v>
       </c>
@@ -1148,7 +1235,7 @@
         <v>68</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D7" t="s">
         <v>35</v>
@@ -1162,8 +1249,15 @@
       <c r="G7" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K7" s="7">
+        <v>0.01</v>
+      </c>
+      <c r="L7" s="7">
+        <f>Table1[[#This Row],[Price (For Quantity 100)]]*Table1[[#This Row],[Qty]]</f>
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>8</v>
       </c>
@@ -1171,7 +1265,7 @@
         <v>73</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D8" t="s">
         <v>35</v>
@@ -1185,8 +1279,15 @@
       <c r="G8" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K8" s="7">
+        <v>0.01</v>
+      </c>
+      <c r="L8" s="7">
+        <f>Table1[[#This Row],[Price (For Quantity 100)]]*Table1[[#This Row],[Qty]]</f>
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>5</v>
       </c>
@@ -1194,7 +1295,7 @@
         <v>52</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D9" t="s">
         <v>35</v>
@@ -1203,13 +1304,20 @@
         <v>36</v>
       </c>
       <c r="F9" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G9" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K9" s="7">
+        <v>0.01</v>
+      </c>
+      <c r="L9" s="7">
+        <f>Table1[[#This Row],[Price (For Quantity 100)]]*Table1[[#This Row],[Qty]]</f>
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>1</v>
       </c>
@@ -1217,7 +1325,7 @@
         <v>76</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D10" t="s">
         <v>77</v>
@@ -1234,8 +1342,15 @@
       <c r="H10">
         <v>9695877</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K10" s="7">
+        <v>0.16200000000000001</v>
+      </c>
+      <c r="L10" s="7">
+        <f>Table1[[#This Row],[Price (For Quantity 100)]]*Table1[[#This Row],[Qty]]</f>
+        <v>0.16200000000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>3</v>
       </c>
@@ -1243,7 +1358,7 @@
         <v>66</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D11" t="s">
         <v>35</v>
@@ -1257,8 +1372,15 @@
       <c r="G11" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K11" s="7">
+        <v>0.01</v>
+      </c>
+      <c r="L11" s="7">
+        <f>Table1[[#This Row],[Price (For Quantity 100)]]*Table1[[#This Row],[Qty]]</f>
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>1</v>
       </c>
@@ -1266,7 +1388,7 @@
         <v>60</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D12" t="s">
         <v>62</v>
@@ -1280,42 +1402,59 @@
       <c r="G12" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I12" t="s">
+        <v>181</v>
+      </c>
+      <c r="K12" s="7">
+        <v>0.11</v>
+      </c>
+      <c r="L12" s="7">
+        <f>Table1[[#This Row],[Price (For Quantity 100)]]*Table1[[#This Row],[Qty]]</f>
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>1</v>
       </c>
       <c r="B13" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="D13" t="s">
         <v>152</v>
       </c>
-      <c r="C13" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="D13" t="s">
+      <c r="E13" t="s">
         <v>153</v>
       </c>
-      <c r="E13" t="s">
+      <c r="F13" t="s">
         <v>154</v>
       </c>
-      <c r="F13" t="s">
+      <c r="G13" t="s">
         <v>155</v>
-      </c>
-      <c r="G13" t="s">
-        <v>156</v>
       </c>
       <c r="H13">
         <v>9550216</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K13" s="7">
+        <v>0.05</v>
+      </c>
+      <c r="L13" s="7">
+        <f>Table1[[#This Row],[Price (For Quantity 100)]]*Table1[[#This Row],[Qty]]</f>
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>1</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D14" t="s">
         <v>7</v>
@@ -1332,34 +1471,48 @@
       <c r="H14">
         <v>1336556</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K14" s="7">
+        <v>0.221</v>
+      </c>
+      <c r="L14" s="7">
+        <f>Table1[[#This Row],[Price (For Quantity 100)]]*Table1[[#This Row],[Qty]]</f>
+        <v>0.221</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>1</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D15" t="s">
+        <v>152</v>
+      </c>
+      <c r="E15" t="s">
         <v>153</v>
       </c>
-      <c r="E15" t="s">
-        <v>154</v>
-      </c>
       <c r="F15" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G15" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H15">
         <v>1625280</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K15" s="7">
+        <v>3.9E-2</v>
+      </c>
+      <c r="L15" s="7">
+        <f>Table1[[#This Row],[Price (For Quantity 100)]]*Table1[[#This Row],[Qty]]</f>
+        <v>3.9E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>1</v>
       </c>
@@ -1367,7 +1520,7 @@
         <v>98</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D16" t="s">
         <v>99</v>
@@ -1381,8 +1534,15 @@
       <c r="H16">
         <v>1843695</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K16" s="7">
+        <v>9.7000000000000003E-2</v>
+      </c>
+      <c r="L16" s="7">
+        <f>Table1[[#This Row],[Price (For Quantity 100)]]*Table1[[#This Row],[Qty]]</f>
+        <v>9.7000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>1</v>
       </c>
@@ -1390,7 +1550,7 @@
         <v>127</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D17" t="s">
         <v>127</v>
@@ -1402,13 +1562,17 @@
         <v>128</v>
       </c>
       <c r="G17" t="s">
-        <v>129</v>
-      </c>
-      <c r="H17" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+        <v>180</v>
+      </c>
+      <c r="K17" s="7">
+        <v>1.17</v>
+      </c>
+      <c r="L17" s="7">
+        <f>Table1[[#This Row],[Price (For Quantity 100)]]*Table1[[#This Row],[Qty]]</f>
+        <v>1.17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>1</v>
       </c>
@@ -1416,7 +1580,7 @@
         <v>118</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D18" t="s">
         <v>118</v>
@@ -1433,31 +1597,45 @@
       <c r="H18">
         <v>8638756</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K18" s="7">
+        <v>0.85</v>
+      </c>
+      <c r="L18" s="7">
+        <f>Table1[[#This Row],[Price (For Quantity 100)]]*Table1[[#This Row],[Qty]]</f>
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>1</v>
       </c>
       <c r="B19" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="D19" t="s">
+        <v>156</v>
+      </c>
+      <c r="E19" t="s">
         <v>157</v>
       </c>
-      <c r="C19" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="D19" t="s">
-        <v>157</v>
-      </c>
-      <c r="E19" t="s">
+      <c r="F19" t="s">
         <v>158</v>
-      </c>
-      <c r="F19" t="s">
-        <v>159</v>
       </c>
       <c r="H19">
         <v>2115059</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K19" s="7">
+        <v>1.24</v>
+      </c>
+      <c r="L19" s="7">
+        <f>Table1[[#This Row],[Price (For Quantity 100)]]*Table1[[#This Row],[Qty]]</f>
+        <v>1.24</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>1</v>
       </c>
@@ -1465,7 +1643,7 @@
         <v>94</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D20" t="s">
         <v>94</v>
@@ -1482,13 +1660,20 @@
       <c r="H20">
         <v>1825302</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K20" s="7">
+        <v>0.47</v>
+      </c>
+      <c r="L20" s="7">
+        <f>Table1[[#This Row],[Price (For Quantity 100)]]*Table1[[#This Row],[Qty]]</f>
+        <v>0.47</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>1</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D21" t="s">
         <v>20</v>
@@ -1502,13 +1687,17 @@
       <c r="G21" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="L21" s="7">
+        <f>Table1[[#This Row],[Price (For Quantity 100)]]*Table1[[#This Row],[Qty]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>1</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D22" t="s">
         <v>23</v>
@@ -1525,8 +1714,15 @@
       <c r="H22">
         <v>588763</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K22" s="7">
+        <v>0.17199999999999999</v>
+      </c>
+      <c r="L22" s="7">
+        <f>Table1[[#This Row],[Price (For Quantity 100)]]*Table1[[#This Row],[Qty]]</f>
+        <v>0.17199999999999999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>1</v>
       </c>
@@ -1534,7 +1730,7 @@
         <v>56</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D23" t="s">
         <v>57</v>
@@ -1548,8 +1744,15 @@
       <c r="H23">
         <v>1612709</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K23" s="7">
+        <v>0.41799999999999998</v>
+      </c>
+      <c r="L23" s="7">
+        <f>Table1[[#This Row],[Price (For Quantity 100)]]*Table1[[#This Row],[Qty]]</f>
+        <v>0.41799999999999998</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>1</v>
       </c>
@@ -1557,7 +1760,7 @@
         <v>84</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D24" t="s">
         <v>85</v>
@@ -1574,36 +1777,47 @@
       <c r="H24">
         <v>1929706</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K24" s="7">
+        <v>0.40200000000000002</v>
+      </c>
+      <c r="L24" s="7">
+        <f>Table1[[#This Row],[Price (For Quantity 100)]]*Table1[[#This Row],[Qty]]</f>
+        <v>0.40200000000000002</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>1</v>
       </c>
       <c r="B25" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="D25" t="s">
         <v>143</v>
       </c>
-      <c r="C25" s="5" t="s">
-        <v>176</v>
-      </c>
-      <c r="D25" t="s">
+      <c r="E25" t="s">
         <v>144</v>
       </c>
-      <c r="E25" t="s">
+      <c r="F25" t="s">
         <v>145</v>
       </c>
-      <c r="F25" t="s">
+      <c r="G25" t="s">
         <v>146</v>
       </c>
-      <c r="G25" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="L25" s="7">
+        <f>Table1[[#This Row],[Price (For Quantity 100)]]*Table1[[#This Row],[Qty]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>1</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D26" t="s">
         <v>26</v>
@@ -1617,8 +1831,18 @@
       <c r="G26" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I26" t="s">
+        <v>179</v>
+      </c>
+      <c r="K26" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="L26" s="7">
+        <f>Table1[[#This Row],[Price (For Quantity 100)]]*Table1[[#This Row],[Qty]]</f>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>1</v>
       </c>
@@ -1626,7 +1850,7 @@
         <v>80</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D27" t="s">
         <v>81</v>
@@ -1643,8 +1867,15 @@
       <c r="H27">
         <v>2101358</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K27" s="7">
+        <v>0.20499999999999999</v>
+      </c>
+      <c r="L27" s="7">
+        <f>Table1[[#This Row],[Price (For Quantity 100)]]*Table1[[#This Row],[Qty]]</f>
+        <v>0.20499999999999999</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <v>5</v>
       </c>
@@ -1652,7 +1883,7 @@
         <v>70</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D28" t="s">
         <v>39</v>
@@ -1661,13 +1892,20 @@
         <v>40</v>
       </c>
       <c r="F28" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G28" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K28" s="7">
+        <v>0.01</v>
+      </c>
+      <c r="L28" s="7">
+        <f>Table1[[#This Row],[Price (For Quantity 100)]]*Table1[[#This Row],[Qty]]</f>
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
         <v>4</v>
       </c>
@@ -1675,7 +1913,7 @@
         <v>92</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D29" t="s">
         <v>39</v>
@@ -1689,8 +1927,15 @@
       <c r="G29" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K29" s="7">
+        <v>0.01</v>
+      </c>
+      <c r="L29" s="7">
+        <f>Table1[[#This Row],[Price (For Quantity 100)]]*Table1[[#This Row],[Qty]]</f>
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
         <v>4</v>
       </c>
@@ -1698,7 +1943,7 @@
         <v>89</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D30" t="s">
         <v>39</v>
@@ -1712,8 +1957,15 @@
       <c r="G30" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K30" s="7">
+        <v>0.01</v>
+      </c>
+      <c r="L30" s="7">
+        <f>Table1[[#This Row],[Price (For Quantity 100)]]*Table1[[#This Row],[Qty]]</f>
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
         <v>2</v>
       </c>
@@ -1721,7 +1973,7 @@
         <v>50</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D31" t="s">
         <v>39</v>
@@ -1735,8 +1987,15 @@
       <c r="G31" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K31" s="7">
+        <v>0.01</v>
+      </c>
+      <c r="L31" s="7">
+        <f>Table1[[#This Row],[Price (For Quantity 100)]]*Table1[[#This Row],[Qty]]</f>
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
         <v>3</v>
       </c>
@@ -1744,7 +2003,7 @@
         <v>200</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D32" t="s">
         <v>39</v>
@@ -1758,8 +2017,15 @@
       <c r="G32" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K32" s="7">
+        <v>0.01</v>
+      </c>
+      <c r="L32" s="7">
+        <f>Table1[[#This Row],[Price (For Quantity 100)]]*Table1[[#This Row],[Qty]]</f>
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
         <v>1</v>
       </c>
@@ -1767,7 +2033,7 @@
         <v>38</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D33" t="s">
         <v>39</v>
@@ -1781,8 +2047,15 @@
       <c r="G33" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K33" s="7">
+        <v>0.01</v>
+      </c>
+      <c r="L33" s="7">
+        <f>Table1[[#This Row],[Price (For Quantity 100)]]*Table1[[#This Row],[Qty]]</f>
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
         <v>2</v>
       </c>
@@ -1790,7 +2063,7 @@
         <v>10</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D34" t="s">
         <v>39</v>
@@ -1804,8 +2077,15 @@
       <c r="G34" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K34" s="7">
+        <v>0.01</v>
+      </c>
+      <c r="L34" s="7">
+        <f>Table1[[#This Row],[Price (For Quantity 100)]]*Table1[[#This Row],[Qty]]</f>
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
         <v>4</v>
       </c>
@@ -1813,7 +2093,7 @@
         <v>60</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D35" t="s">
         <v>39</v>
@@ -1827,8 +2107,15 @@
       <c r="G35" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K35" s="7">
+        <v>0.01</v>
+      </c>
+      <c r="L35" s="7">
+        <f>Table1[[#This Row],[Price (For Quantity 100)]]*Table1[[#This Row],[Qty]]</f>
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
         <v>1</v>
       </c>
@@ -1836,7 +2123,7 @@
         <v>71</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D36" t="s">
         <v>39</v>
@@ -1850,8 +2137,15 @@
       <c r="G36" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K36" s="7">
+        <v>0.01</v>
+      </c>
+      <c r="L36" s="7">
+        <f>Table1[[#This Row],[Price (For Quantity 100)]]*Table1[[#This Row],[Qty]]</f>
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="3">
         <v>2</v>
       </c>
@@ -1859,7 +2153,7 @@
         <v>42</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D37" t="s">
         <v>39</v>
@@ -1873,8 +2167,15 @@
       <c r="G37" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K37" s="7">
+        <v>0.01</v>
+      </c>
+      <c r="L37" s="7">
+        <f>Table1[[#This Row],[Price (For Quantity 100)]]*Table1[[#This Row],[Qty]]</f>
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" s="3">
         <v>2</v>
       </c>
@@ -1882,7 +2183,7 @@
         <v>5</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D38" t="s">
         <v>39</v>
@@ -1896,8 +2197,15 @@
       <c r="G38" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K38" s="7">
+        <v>0.01</v>
+      </c>
+      <c r="L38" s="7">
+        <f>Table1[[#This Row],[Price (For Quantity 100)]]*Table1[[#This Row],[Qty]]</f>
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" s="3">
         <v>1</v>
       </c>
@@ -1905,7 +2213,7 @@
         <v>0.01</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D39" t="s">
         <v>30</v>
@@ -1919,8 +2227,15 @@
       <c r="G39" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K39" s="7">
+        <v>0.01</v>
+      </c>
+      <c r="L39" s="7">
+        <f>Table1[[#This Row],[Price (For Quantity 100)]]*Table1[[#This Row],[Qty]]</f>
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" s="3">
         <v>1</v>
       </c>
@@ -1928,7 +2243,7 @@
         <v>0.1</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D40" t="s">
         <v>30</v>
@@ -1942,13 +2257,20 @@
       <c r="G40" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K40" s="7">
+        <v>0.01</v>
+      </c>
+      <c r="L40" s="7">
+        <f>Table1[[#This Row],[Price (For Quantity 100)]]*Table1[[#This Row],[Qty]]</f>
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" s="3">
         <v>1</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D41" t="s">
         <v>16</v>
@@ -1962,13 +2284,17 @@
       <c r="G41" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L41" s="7">
+        <f>Table1[[#This Row],[Price (For Quantity 100)]]*Table1[[#This Row],[Qty]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" s="3">
         <v>1</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D42" t="s">
         <v>11</v>
@@ -1985,11 +2311,18 @@
       <c r="H42" t="s">
         <v>15</v>
       </c>
-      <c r="I42" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J42" t="s">
+        <v>170</v>
+      </c>
+      <c r="K42" s="7">
+        <v>0.115</v>
+      </c>
+      <c r="L42" s="7">
+        <f>Table1[[#This Row],[Price (For Quantity 100)]]*Table1[[#This Row],[Qty]]</f>
+        <v>0.115</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" s="3">
         <v>1</v>
       </c>
@@ -1997,7 +2330,7 @@
         <v>112</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D43" t="s">
         <v>112</v>
@@ -2008,8 +2341,12 @@
       <c r="F43" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L43" s="7">
+        <f>Table1[[#This Row],[Price (For Quantity 100)]]*Table1[[#This Row],[Qty]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" s="3">
         <v>3</v>
       </c>
@@ -2017,7 +2354,7 @@
         <v>124</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D44" t="s">
         <v>124</v>
@@ -2028,71 +2365,92 @@
       <c r="F44" t="s">
         <v>126</v>
       </c>
-      <c r="I44" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J44" t="s">
+        <v>167</v>
+      </c>
+      <c r="K44" s="7">
+        <v>0.25</v>
+      </c>
+      <c r="L44" s="7">
+        <f>Table1[[#This Row],[Price (For Quantity 100)]]*Table1[[#This Row],[Qty]]</f>
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" s="3">
         <v>3</v>
       </c>
       <c r="B45" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="D45" t="s">
+        <v>136</v>
+      </c>
+      <c r="E45" t="s">
         <v>137</v>
       </c>
-      <c r="C45" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="D45" t="s">
-        <v>137</v>
-      </c>
-      <c r="E45" t="s">
+      <c r="F45" t="s">
         <v>138</v>
       </c>
-      <c r="F45" t="s">
+      <c r="G45" t="s">
         <v>139</v>
-      </c>
-      <c r="G45" t="s">
-        <v>140</v>
       </c>
       <c r="H45">
         <v>1713823</v>
       </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K45" s="7">
+        <v>5.7000000000000002E-2</v>
+      </c>
+      <c r="L45" s="7">
+        <f>Table1[[#This Row],[Price (For Quantity 100)]]*Table1[[#This Row],[Qty]]</f>
+        <v>0.17100000000000001</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" s="3">
         <v>1</v>
       </c>
       <c r="B46" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="D46" t="s">
+        <v>160</v>
+      </c>
+      <c r="E46" t="s">
         <v>161</v>
       </c>
-      <c r="C46" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="D46" t="s">
-        <v>161</v>
-      </c>
-      <c r="E46" t="s">
+      <c r="F46" t="s">
         <v>162</v>
       </c>
-      <c r="F46" t="s">
+      <c r="G46" t="s">
         <v>163</v>
-      </c>
-      <c r="G46" t="s">
-        <v>164</v>
       </c>
       <c r="H46">
         <v>1904027</v>
       </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K46" s="7">
+        <v>0.24</v>
+      </c>
+      <c r="L46" s="7">
+        <f>Table1[[#This Row],[Price (For Quantity 100)]]*Table1[[#This Row],[Qty]]</f>
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" s="3">
         <v>2</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D47" t="s">
         <v>108</v>
@@ -2109,31 +2467,45 @@
       <c r="H47">
         <v>9845275</v>
       </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K47" s="7">
+        <v>0.37</v>
+      </c>
+      <c r="L47" s="7">
+        <f>Table1[[#This Row],[Price (For Quantity 100)]]*Table1[[#This Row],[Qty]]</f>
+        <v>0.74</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" s="3">
         <v>1</v>
       </c>
       <c r="B48" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="D48" t="s">
+        <v>129</v>
+      </c>
+      <c r="E48" t="s">
         <v>130</v>
       </c>
-      <c r="C48" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="D48" t="s">
-        <v>130</v>
-      </c>
-      <c r="E48" t="s">
+      <c r="F48" t="s">
         <v>131</v>
-      </c>
-      <c r="F48" t="s">
-        <v>132</v>
       </c>
       <c r="H48">
         <v>1469178</v>
       </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K48" s="7">
+        <v>1.23</v>
+      </c>
+      <c r="L48" s="7">
+        <f>Table1[[#This Row],[Price (For Quantity 100)]]*Table1[[#This Row],[Qty]]</f>
+        <v>1.23</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" s="3">
         <v>1</v>
       </c>
@@ -2141,7 +2513,7 @@
         <v>114</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D49" t="s">
         <v>114</v>
@@ -2158,57 +2530,78 @@
       <c r="H49">
         <v>1754261</v>
       </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K49" s="7">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="L49" s="7">
+        <f>Table1[[#This Row],[Price (For Quantity 100)]]*Table1[[#This Row],[Qty]]</f>
+        <v>0.56999999999999995</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" s="3">
         <v>1</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D50" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E50" t="s">
         <v>95</v>
       </c>
       <c r="F50" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H50">
         <v>1525544</v>
       </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K50" s="7">
+        <v>0.25</v>
+      </c>
+      <c r="L50" s="7">
+        <f>Table1[[#This Row],[Price (For Quantity 100)]]*Table1[[#This Row],[Qty]]</f>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" s="3">
         <v>1</v>
       </c>
       <c r="B51" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="C51" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="D51" t="s">
+        <v>132</v>
+      </c>
+      <c r="E51" t="s">
         <v>133</v>
       </c>
-      <c r="C51" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="D51" t="s">
-        <v>133</v>
-      </c>
-      <c r="E51" t="s">
+      <c r="F51" t="s">
         <v>134</v>
       </c>
-      <c r="F51" t="s">
+      <c r="G51" t="s">
         <v>135</v>
-      </c>
-      <c r="G51" t="s">
-        <v>136</v>
       </c>
       <c r="H51">
         <v>1296592</v>
       </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K51" s="7">
+        <v>0.16200000000000001</v>
+      </c>
+      <c r="L51" s="7">
+        <f>Table1[[#This Row],[Price (For Quantity 100)]]*Table1[[#This Row],[Qty]]</f>
+        <v>0.16200000000000001</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" s="3">
         <v>2</v>
       </c>
@@ -2216,7 +2609,7 @@
         <v>121</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D52" t="s">
         <v>121</v>
@@ -2230,10 +2623,26 @@
       <c r="G52" t="s">
         <v>123</v>
       </c>
+      <c r="H52">
+        <v>2112372</v>
+      </c>
+      <c r="K52" s="7">
+        <v>0.11799999999999999</v>
+      </c>
+      <c r="L52" s="7">
+        <f>Table1[[#This Row],[Price (For Quantity 100)]]*Table1[[#This Row],[Qty]]</f>
+        <v>0.23599999999999999</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L54" s="8">
+        <f>SUM(Table1[Total Cost])</f>
+        <v>12.661999999999997</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="61" orientation="landscape" r:id="rId1"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="51" orientation="landscape" r:id="rId1"/>
   <tableParts count="1">
     <tablePart r:id="rId2"/>
   </tableParts>

--- a/Hardware/standalone/bom.xlsx
+++ b/Hardware/standalone/bom.xlsx
@@ -1003,8 +1003,8 @@
   </sheetPr>
   <dimension ref="A1:L54"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="L54" sqref="A1:L54"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1217,14 +1217,14 @@
         <v>104</v>
       </c>
       <c r="H6">
-        <v>1669967</v>
+        <v>1192513</v>
       </c>
       <c r="K6" s="7">
-        <v>0.16200000000000001</v>
+        <v>0.19800000000000001</v>
       </c>
       <c r="L6" s="7">
         <f>Table1[[#This Row],[Price (For Quantity 100)]]*Table1[[#This Row],[Qty]]</f>
-        <v>0.16200000000000001</v>
+        <v>0.19800000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
@@ -2637,7 +2637,7 @@
     <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L54" s="8">
         <f>SUM(Table1[Total Cost])</f>
-        <v>12.661999999999997</v>
+        <v>12.697999999999997</v>
       </c>
     </row>
   </sheetData>
